--- a/data/trans_bre/P20B-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P20B-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-13.30501804935482</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-16.01577371582463</v>
+        <v>-16.01577371582462</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.3506635442935372</v>
@@ -649,7 +649,7 @@
         <v>-0.3969803462110846</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.4730686500547736</v>
+        <v>-0.4730686500547734</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-27.77433634311278</v>
+        <v>-25.68495825625204</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-17.27594661237829</v>
+        <v>-16.84526608104863</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-29.66369592988451</v>
+        <v>-31.36994816507609</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-34.0627391076662</v>
+        <v>-32.76933982705598</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.7538371739024601</v>
+        <v>-0.7126757501285477</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.4941548499944344</v>
+        <v>-0.4967768701500559</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.642711708067594</v>
+        <v>-0.6765334531201405</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.7608367078971431</v>
+        <v>-0.7482304325341627</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.512337147976401</v>
+        <v>6.289171449640513</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.887017928646975</v>
+        <v>7.051415076715226</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9529034334064403</v>
+        <v>0.8631205175238956</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-1.360818818157457</v>
+        <v>0.05036477108482196</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4930850550906707</v>
+        <v>0.5819166268448632</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.397466297198082</v>
+        <v>0.3475014449473334</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.119675806264889</v>
+        <v>0.06078320492265524</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.02358038902169362</v>
+        <v>-0.02801724072209261</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-3.516709773389043</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-5.511001757061093</v>
+        <v>-5.511001757061101</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.1943725582063744</v>
@@ -749,7 +749,7 @@
         <v>-0.1097012860650666</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.1874267046093714</v>
+        <v>-0.1874267046093716</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-26.13702240402842</v>
+        <v>-26.19144071348241</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-26.5193262891049</v>
+        <v>-29.58306163922796</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-22.34545225489875</v>
+        <v>-21.00059705966333</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-21.31756022354116</v>
+        <v>-19.97360373804399</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5776185909473823</v>
+        <v>-0.5551311099776848</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5877813162660834</v>
+        <v>-0.6237566276816404</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.509829817802287</v>
+        <v>-0.5143755383073487</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5211346567637124</v>
+        <v>-0.5084402516526459</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>11.33731350422414</v>
+        <v>10.53842139061574</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.547757742474277</v>
+        <v>8.223792701624582</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12.5249427537337</v>
+        <v>14.01375725545014</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.828019850625562</v>
+        <v>10.24201574534728</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4955428164414648</v>
+        <v>0.4843141646228294</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6917269338322573</v>
+        <v>0.4924345627138146</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5985645323137202</v>
+        <v>0.7700689451102437</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4535374272561286</v>
+        <v>0.4930371511188958</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +849,7 @@
         <v>-0.5078353621401104</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.1944843035456878</v>
+        <v>-0.1944843035456879</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-23.85229645244748</v>
+        <v>-24.5340587090417</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-20.51740648115637</v>
+        <v>-18.47262000304439</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-43.40145594224104</v>
+        <v>-43.21448184951685</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-21.55664052473103</v>
+        <v>-23.04966004486567</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6136447256767622</v>
+        <v>-0.6462466675829386</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.4984434981058453</v>
+        <v>-0.4555045458233347</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.7487205073377152</v>
+        <v>-0.7520531806519057</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.5255859319050765</v>
+        <v>-0.552449547279749</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.002772011581454</v>
+        <v>8.115136177063603</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>19.97219815975771</v>
+        <v>19.93763368843441</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-2.917731263469983</v>
+        <v>-2.820763430643232</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.7582326137011</v>
+        <v>11.1197342998983</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5668602141156933</v>
+        <v>0.5185279892821495</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9315581867259054</v>
+        <v>0.8884929069649092</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.0751803523378701</v>
+        <v>-0.06841088092980496</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5422252737335939</v>
+        <v>0.5820894880362665</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>1.298203523750176</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.2669485117499594</v>
+        <v>-0.2669485117499593</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-24.51193000970207</v>
+        <v>-22.48213723116175</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-32.70996232475279</v>
+        <v>-30.93878748214095</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-5.59435498804585</v>
+        <v>-6.074861695456068</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-27.96244909685613</v>
+        <v>-27.62396157178467</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-1</v>
+        <v>-0.8639704360678668</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7320271961133868</v>
+        <v>-0.6640175181329651</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4491088557188879</v>
+        <v>-0.421665982264778</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6070447814873853</v>
+        <v>-0.5868607563383349</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>20.75328214668658</v>
+        <v>20.58859793065628</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.8449401317096</v>
+        <v>13.44084323390684</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>42.22953869204395</v>
+        <v>39.49872425224603</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.869565303567573</v>
+        <v>9.728689554111716</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.901732524546134</v>
+        <v>7.162750177239968</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5439737778134717</v>
+        <v>0.6654867365054346</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>8.404514301514677</v>
+        <v>8.357129109183106</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3731730881639209</v>
+        <v>0.4530677131114069</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-9.269447178382464</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-8.972440464993142</v>
+        <v>-8.97244046499314</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.2612547017095448</v>
@@ -1049,7 +1049,7 @@
         <v>-0.2748790538760263</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.2754026202825982</v>
+        <v>-0.2754026202825981</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-16.57186425547539</v>
+        <v>-16.06833198178686</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-13.16720531295722</v>
+        <v>-13.79299014285175</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-19.45851316994624</v>
+        <v>-18.44197461574786</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-16.78928229278522</v>
+        <v>-17.31934360931557</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.5058884661243112</v>
+        <v>-0.4816134588241958</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3656304029278389</v>
+        <v>-0.3923937067235273</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.479794907223292</v>
+        <v>-0.4681933161712375</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.4559871803822934</v>
+        <v>-0.461750222344301</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.223554519412604</v>
+        <v>2.031555402484062</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.880532189973595</v>
+        <v>2.870509142432666</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.3642483339095556</v>
+        <v>0.9165805049923474</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.89938387556314</v>
+        <v>-0.7721463139952415</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.06792365637526433</v>
+        <v>0.1252267523818964</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1214771994447532</v>
+        <v>0.1220810242970052</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.01182230136731143</v>
+        <v>0.03518171491309855</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.03526723539439282</v>
+        <v>-0.02863741334316363</v>
       </c>
     </row>
     <row r="19">
